--- a/biology/Botanique/Dirachmaceae/Dirachmaceae.xlsx
+++ b/biology/Botanique/Dirachmaceae/Dirachmaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dirachmaceae (les Dirachmacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Rosales. C'est une petite famille qui ne comprend que deux espèces du genre Dirachma (en).
 Ce sont des arbustes à petites feuilles fortement dentées, originaires de Somalie et de l'île de Socotra.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type  Dirachma, peut-être dérivé de rachman, nom vernaculaire de cet arbuste parfumé dans l’île de Socotra., bien qu'aucune étymologie n'ait été donnée lors de la description du genre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Dirachma, peut-être dérivé de rachman, nom vernaculaire de cet arbuste parfumé dans l’île de Socotra., bien qu'aucune étymologie n'ait été donnée lors de la description du genre.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille était placée l'ordre des Geraniales.  
-La classification phylogénétique APG III (2009)[3] la situent dans l'ordre des Rosales.
-Cette famille, encore controversée, présente des similitudes avec plusieurs autres familles notamment les Rhamnaceae, Malvaceae, Barbeyaceae et Elaeagnaceae[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille était placée l'ordre des Geraniales.  
+La classification phylogénétique APG III (2009) la situent dans l'ordre des Rosales.
+Cette famille, encore controversée, présente des similitudes avec plusieurs autres familles notamment les Rhamnaceae, Malvaceae, Barbeyaceae et Elaeagnaceae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 mai 2010)[5] et DELTA Angio           (31 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 mai 2010) et DELTA Angio           (31 mai 2010) :
 Dirachma (en)</t>
         </is>
       </c>
@@ -607,12 +625,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (31 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (31 mai 2010) :
 genre Dirachma
 Dirachma socotrana
-Ce genre était mono-spécifique jusqu’à ce qu'on en découvre une seconde espèce  Dirachma somalensis en Somalie, décrite en 1991[7].
+Ce genre était mono-spécifique jusqu’à ce qu'on en découvre une seconde espèce  Dirachma somalensis en Somalie, décrite en 1991.
 </t>
         </is>
       </c>
